--- a/xls/pasport/backup/template.xlsx
+++ b/xls/pasport/backup/template.xlsx
@@ -93,9 +93,6 @@
     <t>{dt1} - {dt2}</t>
   </si>
   <si>
-    <t>Контрагенти - зобов’язання</t>
-  </si>
-  <si>
     <t>{r21taxpay.kved_name}</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>{T2.PDV_SUM}</t>
   </si>
   <si>
-    <t>Контрагенти - кредит</t>
-  </si>
-  <si>
     <t>[T1.N]</t>
   </si>
   <si>
@@ -538,10 +532,16 @@
     <t>{T1.PDV_SUM}</t>
   </si>
   <si>
+    <t>Контрагенти - кредит (тис.грн.)</t>
+  </si>
+  <si>
+    <t>Контрагенти - зобов’язання (тис.грн.)</t>
+  </si>
+  <si>
     <t>ПДВ</t>
   </si>
   <si>
-    <t>ОБСЯГ</t>
+    <t>ОБСЯГ З ПДВ</t>
   </si>
 </sst>
 </file>
@@ -747,14 +747,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,15 +1113,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1130,15 +1130,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1161,69 +1161,69 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="D11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="D14" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1231,33 +1231,33 @@
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1289,13 +1289,13 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="52.140625" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,12 +1312,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>170</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -1326,41 +1326,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,12 +1377,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>170</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -1391,36 +1391,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1452,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
@@ -1460,117 +1460,117 @@
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1606,88 +1606,88 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="I4" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="G5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="35" t="s">
+      <c r="I5" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="J5" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>152</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1711,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1719,27 +1719,27 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1775,7 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="26"/>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>10</v>
@@ -1795,33 +1795,33 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>81</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1829,56 +1829,56 @@
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1886,56 +1886,56 @@
         <v>0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1943,56 +1943,56 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>113</v>
-      </c>
       <c r="I15" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="27" t="s">
         <v>148</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -2000,51 +2000,51 @@
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="H20" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>139</v>
-      </c>
       <c r="I20" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
